--- a/theme-preview/page-link.xlsx
+++ b/theme-preview/page-link.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\xreshotel\theme-preview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA578C2A-BE4F-489E-9D04-8898561DD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C78B4-BB79-4C78-AD10-78F3C49A809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EE2D811-A148-484D-A099-C2D78E519700}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EE2D811-A148-484D-A099-C2D78E519700}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Tema 1</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>bos_1</t>
+  </si>
+  <si>
+    <t>bos_2</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A54EA82-7ED5-4C79-8315-74F080B88060}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -847,6 +852,12 @@
       <c r="V3" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="W3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">

--- a/theme-preview/page-link.xlsx
+++ b/theme-preview/page-link.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\xreshotel\theme-preview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C78B4-BB79-4C78-AD10-78F3C49A809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E105E903-E384-436B-805C-A491377BE494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EE2D811-A148-484D-A099-C2D78E519700}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EE2D811-A148-484D-A099-C2D78E519700}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -625,31 +625,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A54EA82-7ED5-4C79-8315-74F080B88060}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -859,7 +859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -927,7 +927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
